--- a/Perple_X/MATLAB Scripts/areoterm.xlsx
+++ b/Perple_X/MATLAB Scripts/areoterm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>20000</v>
       </c>
       <c r="B2" t="n">
-        <v>1373</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>30000</v>
       </c>
       <c r="B3" t="n">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>40000</v>
       </c>
       <c r="B4" t="n">
-        <v>1523</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="5">
@@ -474,127 +474,103 @@
         <v>50000</v>
       </c>
       <c r="B5" t="n">
-        <v>1523</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="B6" t="n">
-        <v>1673</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="B7" t="n">
-        <v>1723</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="B8" t="n">
-        <v>1773</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="B9" t="n">
-        <v>1823</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="B10" t="n">
-        <v>1848</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="B11" t="n">
-        <v>1923</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="B12" t="n">
-        <v>1973</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>135000</v>
+        <v>150000</v>
       </c>
       <c r="B13" t="n">
-        <v>1983</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="B14" t="n">
-        <v>1998</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>150000</v>
+        <v>210000</v>
       </c>
       <c r="B15" t="n">
-        <v>2023</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>170000</v>
+        <v>225000</v>
       </c>
       <c r="B16" t="n">
-        <v>2023</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>190000</v>
+        <v>235000</v>
       </c>
       <c r="B17" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>200000</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>210000</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>235000</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2038</v>
+        <v>2080</v>
       </c>
     </row>
   </sheetData>
